--- a/biology/Botanique/Forêt_nationale_Lewis_et_Clark/Forêt_nationale_Lewis_et_Clark.xlsx
+++ b/biology/Botanique/Forêt_nationale_Lewis_et_Clark/Forêt_nationale_Lewis_et_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_Lewis_et_Clark</t>
+          <t>Forêt_nationale_Lewis_et_Clark</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt nationale Lewis et Clark (en anglais Lewis and Clark National Forest) est une forêt nationale des États-Unis d'Amérique s'étendant sur près de 7 300 km2 dans l'État du Montana. Elle se situe sur le Continental Divide.
 La forêt est découpée en deux zones. Sa partie orientale est composée de prés et d’arbustes avec quelques poches de forêts où se nourrit du bétail et où l'on pratique l'exploitation forestière. La partie occidentale est plus orientée pour la préservation de la nature car une grande partie est déclarée réserve sauvage (Wilderness). La forêt fut créée en 1897 ce qui en fait l'une des plus vieilles du pays. Elle tire son nom des célèbres membres de l'expédition Lewis et Clark qui traversa la forêt entre 1804 et 1806. Avant cela, la région fut habitée pendant environ 8 000 ans par des amérindiens des tribus Pieds-Noirs, Sioux, Cheyennes, Têtes-Plates et Crows qui y chassaient.
